--- a/NCAA DataBase Overiew and Features.xlsx
+++ b/NCAA DataBase Overiew and Features.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Phyton Data Projects\NCAA Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Python Data Projects\NCAA Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96BD205F-A61A-418B-A1C5-64DCE88A52CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A362443-E0F1-4407-B413-7789415FDF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9954D96D-2C45-415B-BF6F-F4975F03A0A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overview!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>Year</t>
   </si>
@@ -162,12 +159,6 @@
     <t>Oral Roberts 2023</t>
   </si>
   <si>
-    <t>for machine learning *only using teams that make tournament* for class balance.</t>
-  </si>
-  <si>
-    <t>*bracket division strength rating*</t>
-  </si>
-  <si>
     <t>player/season</t>
   </si>
   <si>
@@ -210,30 +201,9 @@
     <t>poll_Pre 1</t>
   </si>
   <si>
-    <t>region_rating_custom</t>
-  </si>
-  <si>
-    <t>steps for stats calculation:</t>
-  </si>
-  <si>
-    <t>1st filter on teams make tournament</t>
-  </si>
-  <si>
-    <t>then perform average if on the team rating avg custom for bracket region</t>
-  </si>
-  <si>
     <t>=IFERROR(AVERAGEIF(Sheet5!$C:$C,Sheet4!C4,Sheet5!$DA:$DA),0)</t>
   </si>
   <si>
-    <t>Stats:</t>
-  </si>
-  <si>
-    <t>sum school L#Y cs</t>
-  </si>
-  <si>
-    <t>Do for years step:</t>
-  </si>
-  <si>
     <t>File Overview:</t>
   </si>
   <si>
@@ -300,20 +270,306 @@
     <t>Other Sheets:</t>
   </si>
   <si>
-    <t>AP Polls</t>
-  </si>
-  <si>
     <t>Team Database</t>
   </si>
   <si>
     <t>mn_team_index</t>
+  </si>
+  <si>
+    <t>MAKE SURE TO PERFORM ALL CALCULATIONS before filtering on teams that only made the tournament.</t>
+  </si>
+  <si>
+    <t>advanced statistic calculations for players:</t>
+  </si>
+  <si>
+    <t>other notes:</t>
+  </si>
+  <si>
+    <t>For class balance only teams that made the tournament were used.</t>
+  </si>
+  <si>
+    <t>To calculate cf_rating_custom and bracket_region_rating_custom:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In total there are 3 types of team_rating features: base one *no mathematical  adjustment*: this is used for feature top_8_team_rating </t>
+  </si>
+  <si>
+    <t>the calculation and overview of player_rating (custom metric used to evalute the best players in the game):</t>
+  </si>
+  <si>
+    <t>the calculation of converting AP poll ranks to reverse to values so 1 = 25 score:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation of sum school L#Y cs stats (important to know casuse 2020 was skipped COVID): </t>
+  </si>
+  <si>
+    <t>calculation of historical_school_rating:</t>
+  </si>
+  <si>
+    <t>sum school champion</t>
+  </si>
+  <si>
+    <t>sum school Finals apps</t>
+  </si>
+  <si>
+    <t>sum school F4 apps</t>
+  </si>
+  <si>
+    <t>sum school E8 apps</t>
+  </si>
+  <si>
+    <t>historical_school_rating</t>
+  </si>
+  <si>
+    <t>Average all player ratings for that team *old/base* (team_rating_avg_custom), then add + ((t6(adjem)_t8(tr)_t12(wk_6)*15)</t>
+  </si>
+  <si>
+    <t>take team_rating_avg_custom, then add + (sum school champion * 7)</t>
+  </si>
+  <si>
+    <t>calculation of cf_rating_custom &amp; bracket_region_rating_custom</t>
+  </si>
+  <si>
+    <t>AP Polls via basketball reference: https://www.sports-reference.com/cbb/seasons/men/2023-polls.html</t>
+  </si>
+  <si>
+    <t>coach stats: https://www.sports-reference.com/cbb/seasons/men/2023-coaches.html</t>
+  </si>
+  <si>
+    <t>*data needs to be unfiltered on (make tournament) all the way through*</t>
+  </si>
+  <si>
+    <t>The Math Behind team_rating_avg_custom &amp; Other Features</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>1st we need player_rating, which is calculated by the following:</t>
+  </si>
+  <si>
+    <t>Formula (player_rating): (GmSc*2.5) + team mov + team_avg_poll</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2nd we need to calculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trac_pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which is calculated by the following:</t>
+    </r>
+  </si>
+  <si>
+    <t>trac_pre_2</t>
+  </si>
+  <si>
+    <t>*avearge team player rating*</t>
+  </si>
+  <si>
+    <t>IFERROR(AVERAGEIF('player database'!$G:$G,'Full RawData'!C2,'player database'!$AK:$AK),0)</t>
+  </si>
+  <si>
+    <t>calculation of team_rating_avg_custom:</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3rd we need to calculate feature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top_8_trac_pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (top 8 teams in this feature each season) by the following:</t>
+    </r>
+  </si>
+  <si>
+    <t>top_8_trac_pre</t>
+  </si>
+  <si>
+    <t>*use formula on trac_pre_rk*</t>
+  </si>
+  <si>
+    <t>IF(ED2&lt;=8,1,0)</t>
+  </si>
+  <si>
+    <t>trac_pre_rk</t>
+  </si>
+  <si>
+    <t>*use formula on trac_pre*</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT((A2=$A$2:$A$6815)*(DX2&lt;$DX$2:$DX$6815))+1</t>
+  </si>
+  <si>
+    <t>average if function on conference/season and on trac_pre_2</t>
+  </si>
+  <si>
+    <t>average if function on bracket region/season and on trac_pre_2</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4th we need to calculate feature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t6(adjem)_t8(trac_pre)_t12(wk6), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by the following:</t>
+    </r>
+  </si>
+  <si>
+    <t>t6(adjem)_t8(trac_pre)_t12(wk6)</t>
+  </si>
+  <si>
+    <t>*does team meet these 3 criteria: top 6 kenpom adjusted efficiency margin</t>
+  </si>
+  <si>
+    <t>,top 8 trac_pre, and top 12 of week 6 of the ap polls *</t>
+  </si>
+  <si>
+    <t>*formula*</t>
+  </si>
+  <si>
+    <t>IF(SUM(DS2,DT2,U2)=3,1,0)</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5th we need to calculate feature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trac_pre_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, by the following:</t>
+    </r>
+  </si>
+  <si>
+    <t>*formula for trac_pre_2*</t>
+  </si>
+  <si>
+    <t>(trac_pre)+(t6(adjem)_t8(trac_pre)_t12(wk6) * 15)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6th lets finally calculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team_rating_avg_custom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, by the following:</t>
+    </r>
+  </si>
+  <si>
+    <t>*formula for it*:</t>
+  </si>
+  <si>
+    <t>(trac_pre_2)+(sum school cs * 7)</t>
+  </si>
+  <si>
+    <t>other)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +579,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -345,12 +616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -358,18 +629,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,28 +1112,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E31F70-4770-4582-AD83-9835DB48D15D}">
-  <dimension ref="A2:AC64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBD536B-A5CB-48EF-BEB8-2F65DFBEFBAA}">
+  <dimension ref="A3:AC86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -721,716 +1155,1700 @@
     <col min="33" max="33" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H3">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="I8">
         <v>37.4</v>
       </c>
-      <c r="J3">
+      <c r="J8">
         <v>9.6</v>
       </c>
-      <c r="K3">
+      <c r="K8">
         <v>22.7</v>
       </c>
-      <c r="L3">
+      <c r="L8">
         <v>0.42299999999999999</v>
       </c>
-      <c r="M3">
+      <c r="M8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N3">
+      <c r="N8">
         <v>30.1</v>
       </c>
-      <c r="O3">
+      <c r="O8">
         <v>12.1</v>
       </c>
-      <c r="P3">
+      <c r="P8">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="Q8">
         <v>5.8</v>
       </c>
-      <c r="R3">
+      <c r="R8">
         <v>6.3</v>
       </c>
-      <c r="S3">
+      <c r="S8">
         <v>0.92</v>
       </c>
-      <c r="T3">
+      <c r="T8">
         <v>0.3</v>
       </c>
-      <c r="U3">
+      <c r="U8">
         <v>2.6</v>
       </c>
-      <c r="V3">
+      <c r="V8">
         <v>2.9</v>
       </c>
-      <c r="W3">
+      <c r="W8">
         <v>3.8</v>
       </c>
-      <c r="X3">
+      <c r="X8">
         <v>1.2</v>
       </c>
-      <c r="Y3">
+      <c r="Y8">
         <v>0.1</v>
       </c>
-      <c r="Z3">
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="AA3">
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <f>N3+0.4*J3-0.7*K3-0.4*(R3-Q3)+0.7*T3+0.3*U3+X3+0.7*W3+0.7*Y3-0.4*AA3-Z3</f>
+      <c r="AB8">
+        <f>N8+0.4*J8-0.7*K8-0.4*(R8-Q8)+0.7*T8+0.3*U8+X8+0.7*W8+0.7*Y8-0.4*AA8-Z8</f>
         <v>18.97</v>
       </c>
-      <c r="AC3">
-        <f>N3*0.86+M3*0.389+W3*0.727+Z3*-0.964+T3*0.473+U3*0.137+X3*1.252+Y3*1.125+AA3*-0.367+K3*-0.56+R3*-0.246</f>
+      <c r="AC8">
+        <f>N8*0.86+M8*0.389+W8*0.727+Z8*-0.964+T8*0.473+U8*0.137+X8*1.252+Y8*1.125+AA8*-0.367+K8*-0.56+R8*-0.246</f>
         <v>14.857699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="H4">
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="I9">
         <v>36.799999999999997</v>
       </c>
-      <c r="J4">
+      <c r="J9">
         <v>7.9</v>
       </c>
-      <c r="K4">
+      <c r="K9">
         <v>17.399999999999999</v>
       </c>
-      <c r="L4">
+      <c r="L9">
         <v>0.45600000000000002</v>
       </c>
-      <c r="M4">
+      <c r="M9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N4">
+      <c r="N9">
         <v>24.1</v>
       </c>
-      <c r="O4">
+      <c r="O9">
         <v>7.1</v>
       </c>
-      <c r="P4">
+      <c r="P9">
         <v>0.32600000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="Q9">
         <v>5.9</v>
       </c>
-      <c r="R4">
+      <c r="R9">
         <v>7.3</v>
       </c>
-      <c r="S4">
+      <c r="S9">
         <v>0.80600000000000005</v>
       </c>
-      <c r="T4">
+      <c r="T9">
         <v>1.4</v>
       </c>
-      <c r="U4">
+      <c r="U9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V4">
+      <c r="V9">
         <v>5.9</v>
       </c>
-      <c r="W4">
+      <c r="W9">
         <v>3.6</v>
       </c>
-      <c r="X4">
+      <c r="X9">
         <v>1.7</v>
       </c>
-      <c r="Y4">
+      <c r="Y9">
         <v>0.2</v>
       </c>
-      <c r="Z4">
+      <c r="Z9">
         <v>3.7</v>
       </c>
-      <c r="AA4">
+      <c r="AA9">
         <v>1.9</v>
       </c>
-      <c r="AB4">
-        <f t="shared" ref="AB4:AB5" si="0">N4+0.4*J4-0.7*K4-0.4*(R4-Q4)+0.7*T4+0.3*U4+X4+0.7*W4+0.7*Y4-0.4*AA4-Z4</f>
+      <c r="AB9">
+        <f>N9+0.4*J9-0.7*K9-0.4*(R9-Q9)+0.7*T9+0.3*U9+X9+0.7*W9+0.7*Y9-0.4*AA9-Z9</f>
         <v>16.78</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC5" si="1">N4*0.86+M4*0.389+W4*0.727+Z4*-0.964+T4*0.473+U4*0.137+X4*1.252+Y4*1.125+AA4*-0.367+K4*-0.56+R4*-0.246</f>
+      <c r="AC9">
+        <f>N9*0.86+M9*0.389+W9*0.727+Z9*-0.964+T9*0.473+U9*0.137+X9*1.252+Y9*1.125+AA9*-0.367+K9*-0.56+R9*-0.246</f>
         <v>12.079800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2023</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="H5">
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="I5">
+      <c r="I10">
         <v>36.9</v>
       </c>
-      <c r="J5">
+      <c r="J10">
         <v>7.2</v>
       </c>
-      <c r="K5">
+      <c r="K10">
         <v>15.8</v>
       </c>
-      <c r="L5">
+      <c r="L10">
         <v>0.45300000000000001</v>
       </c>
-      <c r="M5">
+      <c r="M10">
         <v>3.8</v>
       </c>
-      <c r="N5">
+      <c r="N10">
         <v>23.5</v>
       </c>
-      <c r="O5">
+      <c r="O10">
         <v>9.4</v>
       </c>
-      <c r="P5">
+      <c r="P10">
         <v>0.40200000000000002</v>
       </c>
-      <c r="Q5">
+      <c r="Q10">
         <v>5.4</v>
       </c>
-      <c r="R5">
+      <c r="R10">
         <v>5.8</v>
       </c>
-      <c r="S5">
+      <c r="S10">
         <v>0.92400000000000004</v>
       </c>
-      <c r="T5">
+      <c r="T10">
         <v>0.4</v>
       </c>
-      <c r="U5">
+      <c r="U10">
         <v>3.2</v>
       </c>
-      <c r="V5">
+      <c r="V10">
         <v>3.6</v>
       </c>
-      <c r="W5">
+      <c r="W10">
         <v>3.8</v>
       </c>
-      <c r="X5">
+      <c r="X10">
         <v>1.3</v>
       </c>
-      <c r="Y5">
+      <c r="Y10">
         <v>0.1</v>
       </c>
-      <c r="Z5">
+      <c r="Z10">
         <v>1.6</v>
       </c>
-      <c r="AA5">
+      <c r="AA10">
         <v>1.4</v>
       </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
+      <c r="AB10">
+        <f>N10+0.4*J10-0.7*K10-0.4*(R10-Q10)+0.7*T10+0.3*U10+X10+0.7*W10+0.7*Y10-0.4*AA10-Z10</f>
         <v>18.27</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="1"/>
+      <c r="AC10">
+        <f>N10*0.86+M10*0.389+W10*0.727+Z10*-0.964+T10*0.473+U10*0.137+X10*1.252+Y10*1.125+AA10*-0.367+K10*-0.56+R10*-0.246</f>
         <v>14.487500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2023</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="K13" t="s">
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G20" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H20">
+        <v>20.38</v>
+      </c>
+      <c r="I20">
+        <v>12.55</v>
+      </c>
+      <c r="J20">
+        <v>19.555555555555557</v>
+      </c>
+      <c r="K20">
+        <f>(H20*2.5)+I20+J20</f>
+        <v>83.055555555555557</v>
+      </c>
+      <c r="L20" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K20)</f>
+        <v>=(H20*2.5)+I20+J20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>H20*2.5</f>
+        <v>50.949999999999996</v>
+      </c>
+      <c r="I21">
+        <f>I20</f>
+        <v>12.55</v>
+      </c>
+      <c r="J21">
+        <f>J20</f>
+        <v>19.555555555555557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="5">
+        <f>H21/$K$20</f>
+        <v>0.61344481605351164</v>
+      </c>
+      <c r="I22" s="5">
+        <f>I21/$K$20</f>
+        <v>0.15110367892976589</v>
+      </c>
+      <c r="J22" s="5">
+        <f>J21/$K$20</f>
+        <v>0.23545150501672243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14">
-        <v>20.38</v>
-      </c>
-      <c r="I14">
-        <v>12.55</v>
-      </c>
-      <c r="J14">
-        <v>19.555555555555557</v>
-      </c>
-      <c r="K14">
-        <f>(H14*2.5)+I14+J14</f>
-        <v>83.055555555555557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <f>H14*2.5</f>
-        <v>50.949999999999996</v>
-      </c>
-      <c r="I15">
-        <f>I14</f>
-        <v>12.55</v>
-      </c>
-      <c r="J15">
-        <f>J14</f>
-        <v>19.555555555555557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <f>H15/$K$14</f>
-        <v>0.61344481605351164</v>
-      </c>
-      <c r="I16">
-        <f>I15/$K$14</f>
-        <v>0.15110367892976589</v>
-      </c>
-      <c r="J16">
-        <f>J15/$K$14</f>
-        <v>0.23545150501672243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>20</v>
       </c>
-      <c r="B23">
-        <f t="shared" ref="B23:B30" si="2">IF(A23=1,25,IF(A23=2,24,IF(A23=3,23,IF(A23=4,22,IF(A23=5,21,IF(A23=6,20,IF(A23=7,19,IF(A23=8,18,IF(A23=9,17,IF(A23=10,16,IF(A23=11,15,IF(A23=12,14,IF(A23=13,13,IF(A23=14,12,IF(A23=15,11,IF(A23=16,10,IF(A23=17,9,IF(A23=18,8,IF(A23=19,7,IF(A23=20,6,IF(A23=21,5,IF(A23=22,4,IF(A23=23,3,IF(A23=24,2,IF(A23=25,1,0)))))))))))))))))))))))))</f>
+      <c r="B26">
+        <f>IF(A26=1,25,IF(A26=2,24,IF(A26=3,23,IF(A26=4,22,IF(A26=5,21,IF(A26=6,20,IF(A26=7,19,IF(A26=8,18,IF(A26=9,17,IF(A26=10,16,IF(A26=11,15,IF(A26=12,14,IF(A26=13,13,IF(A26=14,12,IF(A26=15,11,IF(A26=16,10,IF(A26=17,9,IF(A26=18,8,IF(A26=19,7,IF(A26=20,6,IF(A26=21,5,IF(A26=22,4,IF(A26=23,3,IF(A26=24,2,IF(A26=25,1,0)))))))))))))))))))))))))</f>
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="2"/>
+      <c r="B27">
+        <f>IF(A27=1,25,IF(A27=2,24,IF(A27=3,23,IF(A27=4,22,IF(A27=5,21,IF(A27=6,20,IF(A27=7,19,IF(A27=8,18,IF(A27=9,17,IF(A27=10,16,IF(A27=11,15,IF(A27=12,14,IF(A27=13,13,IF(A27=14,12,IF(A27=15,11,IF(A27=16,10,IF(A27=17,9,IF(A27=18,8,IF(A27=19,7,IF(A27=20,6,IF(A27=21,5,IF(A27=22,4,IF(A27=23,3,IF(A27=24,2,IF(A27=25,1,0)))))))))))))))))))))))))</f>
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f>IF(A28=1,25,IF(A28=2,24,IF(A28=3,23,IF(A28=4,22,IF(A28=5,21,IF(A28=6,20,IF(A28=7,19,IF(A28=8,18,IF(A28=9,17,IF(A28=10,16,IF(A28=11,15,IF(A28=12,14,IF(A28=13,13,IF(A28=14,12,IF(A28=15,11,IF(A28=16,10,IF(A28=17,9,IF(A28=18,8,IF(A28=19,7,IF(A28=20,6,IF(A28=21,5,IF(A28=22,4,IF(A28=23,3,IF(A28=24,2,IF(A28=25,1,0)))))))))))))))))))))))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f>IF(A29=1,25,IF(A29=2,24,IF(A29=3,23,IF(A29=4,22,IF(A29=5,21,IF(A29=6,20,IF(A29=7,19,IF(A29=8,18,IF(A29=9,17,IF(A29=10,16,IF(A29=11,15,IF(A29=12,14,IF(A29=13,13,IF(A29=14,12,IF(A29=15,11,IF(A29=16,10,IF(A29=17,9,IF(A29=18,8,IF(A29=19,7,IF(A29=20,6,IF(A29=21,5,IF(A29=22,4,IF(A29=23,3,IF(A29=24,2,IF(A29=25,1,0)))))))))))))))))))))))))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <f>IF(A30=1,25,IF(A30=2,24,IF(A30=3,23,IF(A30=4,22,IF(A30=5,21,IF(A30=6,20,IF(A30=7,19,IF(A30=8,18,IF(A30=9,17,IF(A30=10,16,IF(A30=11,15,IF(A30=12,14,IF(A30=13,13,IF(A30=14,12,IF(A30=15,11,IF(A30=16,10,IF(A30=17,9,IF(A30=18,8,IF(A30=19,7,IF(A30=20,6,IF(A30=21,5,IF(A30=22,4,IF(A30=23,3,IF(A30=24,2,IF(A30=25,1,0)))))))))))))))))))))))))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>IF(A31=1,25,IF(A31=2,24,IF(A31=3,23,IF(A31=4,22,IF(A31=5,21,IF(A31=6,20,IF(A31=7,19,IF(A31=8,18,IF(A31=9,17,IF(A31=10,16,IF(A31=11,15,IF(A31=12,14,IF(A31=13,13,IF(A31=14,12,IF(A31=15,11,IF(A31=16,10,IF(A31=17,9,IF(A31=18,8,IF(A31=19,7,IF(A31=20,6,IF(A31=21,5,IF(A31=22,4,IF(A31=23,3,IF(A31=24,2,IF(A31=25,1,0)))))))))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="2"/>
+      <c r="B32">
+        <f>IF(A32=1,25,IF(A32=2,24,IF(A32=3,23,IF(A32=4,22,IF(A32=5,21,IF(A32=6,20,IF(A32=7,19,IF(A32=8,18,IF(A32=9,17,IF(A32=10,16,IF(A32=11,15,IF(A32=12,14,IF(A32=13,13,IF(A32=14,12,IF(A32=15,11,IF(A32=16,10,IF(A32=17,9,IF(A32=18,8,IF(A32=19,7,IF(A32=20,6,IF(A32=21,5,IF(A32=22,4,IF(A32=23,3,IF(A32=24,2,IF(A32=25,1,0)))))))))))))))))))))))))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>17</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="2"/>
+      <c r="B33">
+        <f>IF(A33=1,25,IF(A33=2,24,IF(A33=3,23,IF(A33=4,22,IF(A33=5,21,IF(A33=6,20,IF(A33=7,19,IF(A33=8,18,IF(A33=9,17,IF(A33=10,16,IF(A33=11,15,IF(A33=12,14,IF(A33=13,13,IF(A33=14,12,IF(A33=15,11,IF(A33=16,10,IF(A33=17,9,IF(A33=18,8,IF(A33=19,7,IF(A33=20,6,IF(A33=21,5,IF(A33=22,4,IF(A33=23,3,IF(A33=24,2,IF(A33=25,1,0)))))))))))))))))))))))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <f>IF(A34=1,25,IF(A34=2,24,IF(A34=3,23,IF(A34=4,22,IF(A34=5,21,IF(A34=6,20,IF(A34=7,19,IF(A34=8,18,IF(A34=9,17,IF(A34=10,16,IF(A34=11,15,IF(A34=12,14,IF(A34=13,13,IF(A34=14,12,IF(A34=15,11,IF(A34=16,10,IF(A34=17,9,IF(A34=18,8,IF(A34=19,7,IF(A34=20,6,IF(A34=21,5,IF(A34=22,4,IF(A34=23,3,IF(A34=24,2,IF(A34=25,1,0)))))))))))))))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="11"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="11"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H37" s="12"/>
+      <c r="I37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="11"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="11"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2022</v>
+      </c>
+      <c r="B40">
+        <f>IF(A40=2021,A40-2,A40-1)</f>
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <f>IF(B40=2021,B40-2,B40-1)</f>
+        <v>2019</v>
+      </c>
+      <c r="D40">
+        <f>IF(C40=2021,C40-2,C40-1)</f>
+        <v>2018</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="11">
+        <v>20.38</v>
+      </c>
+      <c r="M40" s="11">
+        <v>12.55</v>
+      </c>
+      <c r="N40" s="11">
+        <v>19.555555555555557</v>
+      </c>
+      <c r="O40" s="11">
+        <v>83.055555555555557</v>
+      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="12"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="19">
+        <v>0.61344481605351164</v>
+      </c>
+      <c r="M41" s="20">
+        <v>0.15110367892976589</v>
+      </c>
+      <c r="N41" s="21">
+        <v>0.23545150501672243</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H42" s="12"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <f>(A45*2)+(B45*1)+(C45*0.5)+(D45*0.25)</f>
+        <v>12.25</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H51" s="12"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H56" s="12"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H57" s="12"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H58" s="12"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H61" s="12"/>
+      <c r="I61" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H63" s="12"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="11"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H65" s="12"/>
+      <c r="I65" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="H66" s="12"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="H67" s="12"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2022</v>
-      </c>
-      <c r="B36">
-        <f>IF(A36=2021,A36-2,A36-1)</f>
-        <v>2021</v>
-      </c>
-      <c r="C36">
-        <f>IF(B36=2021,B36-2,B36-1)</f>
-        <v>2019</v>
-      </c>
-      <c r="D36">
-        <f>IF(C36=2021,C36-2,C36-1)</f>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="D68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="3" t="s">
+      <c r="H68" s="12"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="11"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H69" s="12"/>
+      <c r="I69" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="11"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H70" s="12"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H71" s="12"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H72" s="12"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="11"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H73" s="12"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="11"/>
+    </row>
+    <row r="74" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="H74" s="24"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="26"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D78" t="s">
         <v>76</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>92</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="J36:O36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L41:N41">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{520E3A95-1D4B-4E09-A22C-4070619354E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{520E3A95-1D4B-4E09-A22C-4070619354E7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L41:N41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>